--- a/AutoFirmwareUpgrade/ClassLibrary1/bin/Debug/TestDataFiles/CablingDataSet/3U4U3I.xlsx
+++ b/AutoFirmwareUpgrade/ClassLibrary1/bin/Debug/TestDataFiles/CablingDataSet/3U4U3I.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F09CD51B-FC5E-4FD5-B2B2-423CCE93EF27}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8ADCA3-2556-4580-BFCD-A0C236793D82}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -267,7 +267,7 @@
     <t>Cabling 3U4U3I</t>
   </si>
   <si>
-    <t>Cabling 2M3U3I</t>
+    <t>Cabling 3U3I</t>
   </si>
 </sst>
 </file>
